--- a/template Excel/Accountting/Assets.xlsx
+++ b/template Excel/Accountting/Assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14B9849-45E2-4459-9E95-ACDF52E53171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7799FEB-7039-47BD-BCF5-4744FA8CF0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{98709E6D-DA91-4863-942E-D5CFD93D914C}"/>
   </bookViews>
@@ -465,9 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A7DDA1-6308-4532-AA57-E7AD914F28FA}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
